--- a/Tables_Figures/output/table23_SR1 & 2_regression_model_comparisons.xlsx
+++ b/Tables_Figures/output/table23_SR1 & 2_regression_model_comparisons.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="489">
   <si>
     <t>SUBEXPT</t>
   </si>
@@ -44,22 +44,40 @@
     <t>FIX.EFF.RELINT.F1.1</t>
   </si>
   <si>
-    <t>REL.F1.P.VALS</t>
-  </si>
-  <si>
-    <t>REL.F2.P.VALS</t>
-  </si>
-  <si>
-    <t>INT.F1.P.VALS</t>
-  </si>
-  <si>
-    <t>INT.F2.P.VALS</t>
-  </si>
-  <si>
-    <t>RELINT.F1.P.VALS</t>
-  </si>
-  <si>
-    <t>RELINT.F2.P.VALS</t>
+    <t>FIXEFF.RELF1.PVALS</t>
+  </si>
+  <si>
+    <t>relf1.round.ps</t>
+  </si>
+  <si>
+    <t>FIXEFF.RELF2.PVALS</t>
+  </si>
+  <si>
+    <t>relf2.round.ps</t>
+  </si>
+  <si>
+    <t>FIXEFF.INTF1.PVALS</t>
+  </si>
+  <si>
+    <t>intf1.round.ps</t>
+  </si>
+  <si>
+    <t>FIXEFF.INTF2.PVALS</t>
+  </si>
+  <si>
+    <t>intf2.round.ps</t>
+  </si>
+  <si>
+    <t>FIXEFF.RELINTF1.PVALS</t>
+  </si>
+  <si>
+    <t>relintf1.round.ps</t>
+  </si>
+  <si>
+    <t>FIXEFF.RELINTF2.PVALS</t>
+  </si>
+  <si>
+    <t>relintf1.round.ps.1</t>
   </si>
   <si>
     <t>1</t>
@@ -233,7 +251,7 @@
     <t/>
   </si>
   <si>
-    <t>REL*INT ANALYSIS</t>
+    <t>REL * INT ANALYSIS</t>
   </si>
   <si>
     <t>SemRel</t>
@@ -251,28 +269,28 @@
     <t>ALL</t>
   </si>
   <si>
-    <t>REL*INT(RES)</t>
+    <t>REL * INT(RES)</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>REL(RES)*INT</t>
+    <t>REL(RES) * INT</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>ASSOC*INT ANALYSIS</t>
-  </si>
-  <si>
-    <t>REL*ASSOC ANALYSIS</t>
-  </si>
-  <si>
-    <t>REL*ASSOC(RES)</t>
-  </si>
-  <si>
-    <t>REL(RES)*ASSOC</t>
+    <t>ASSOC * INT ANALYSIS</t>
+  </si>
+  <si>
+    <t>REL * ASSOC ANALYSIS</t>
+  </si>
+  <si>
+    <t>REL * ASSOC(RES)</t>
+  </si>
+  <si>
+    <t>REL(RES) * ASSOC</t>
   </si>
   <si>
     <t>100</t>
@@ -947,6 +965,66 @@
     <t>-0.013</t>
   </si>
   <si>
+    <t>2.357e-07 (***)</t>
+  </si>
+  <si>
+    <t>0 (***)</t>
+  </si>
+  <si>
+    <t>0.0267 (*)</t>
+  </si>
+  <si>
+    <t>0.00336 (**)</t>
+  </si>
+  <si>
+    <t>0.002375 (**)</t>
+  </si>
+  <si>
+    <t>0.462 ( )</t>
+  </si>
+  <si>
+    <t>0.3127 ( )</t>
+  </si>
+  <si>
+    <t>0.0000627 (***)</t>
+  </si>
+  <si>
+    <t>1.766e-07 (***)</t>
+  </si>
+  <si>
+    <t>0.000598 (***)</t>
+  </si>
+  <si>
+    <t>0.01951 (*)</t>
+  </si>
+  <si>
+    <t>0.1917 ( )</t>
+  </si>
+  <si>
+    <t>0.452 ( )</t>
+  </si>
+  <si>
+    <t>0.002077 (**)</t>
+  </si>
+  <si>
+    <t>0.2467 ( )</t>
+  </si>
+  <si>
+    <t>4.69e-09 (***)</t>
+  </si>
+  <si>
+    <t>3.36e-09 (***)</t>
+  </si>
+  <si>
+    <t>1.937e-06 (***)</t>
+  </si>
+  <si>
+    <t>0.000521 (***)</t>
+  </si>
+  <si>
+    <t>0.0853 (.)</t>
+  </si>
+  <si>
     <t>&lt;.001 (***)</t>
   </si>
   <si>
@@ -962,10 +1040,445 @@
     <t>&lt;.10 (.)</t>
   </si>
   <si>
+    <t>0.615 ( )</t>
+  </si>
+  <si>
+    <t>0.0386 (*)</t>
+  </si>
+  <si>
+    <t>0.349 ( )</t>
+  </si>
+  <si>
+    <t>0.732 ( )</t>
+  </si>
+  <si>
+    <t>0.534 ( )</t>
+  </si>
+  <si>
+    <t>0.0002445 (***)</t>
+  </si>
+  <si>
+    <t>0.848 ( )</t>
+  </si>
+  <si>
+    <t>0.775 ( )</t>
+  </si>
+  <si>
+    <t>0.00001595 (***)</t>
+  </si>
+  <si>
+    <t>0.0000939 (***)</t>
+  </si>
+  <si>
+    <t>0.689 ( )</t>
+  </si>
+  <si>
+    <t>0.2979 ( )</t>
+  </si>
+  <si>
+    <t>0.2146 ( )</t>
+  </si>
+  <si>
+    <t>0.716 ( )</t>
+  </si>
+  <si>
+    <t>0.672 ( )</t>
+  </si>
+  <si>
+    <t>0.942 ( )</t>
+  </si>
+  <si>
+    <t>0.705 ( )</t>
+  </si>
+  <si>
+    <t>0.445 ( )</t>
+  </si>
+  <si>
+    <t>0.627 ( )</t>
+  </si>
+  <si>
+    <t>0.1816 ( )</t>
+  </si>
+  <si>
+    <t>0.1285 ( )</t>
+  </si>
+  <si>
+    <t>0.467 ( )</t>
+  </si>
+  <si>
+    <t>0.647 ( )</t>
+  </si>
+  <si>
+    <t>0.001865 (**)</t>
+  </si>
+  <si>
+    <t>0.514 ( )</t>
+  </si>
+  <si>
+    <t>0.00424 (**)</t>
+  </si>
+  <si>
+    <t>0.00666 (**)</t>
+  </si>
+  <si>
+    <t>0.1074 ( )</t>
+  </si>
+  <si>
+    <t>0.00452 (**)</t>
+  </si>
+  <si>
+    <t>0.01592 (*)</t>
+  </si>
+  <si>
+    <t>0.00872 (**)</t>
+  </si>
+  <si>
+    <t>0.0000545 (***)</t>
+  </si>
+  <si>
+    <t>0.00933 (**)</t>
+  </si>
+  <si>
+    <t>0.112 ( )</t>
+  </si>
+  <si>
+    <t>2.285e-06 (***)</t>
+  </si>
+  <si>
+    <t>7.42e-10 (***)</t>
+  </si>
+  <si>
+    <t>0.0001111 (***)</t>
+  </si>
+  <si>
+    <t>0.1535 ( )</t>
+  </si>
+  <si>
+    <t>0.813 ( )</t>
+  </si>
+  <si>
+    <t>1.07e-07 (***)</t>
+  </si>
+  <si>
+    <t>5.77e-11 (***)</t>
+  </si>
+  <si>
+    <t>0.577 ( )</t>
+  </si>
+  <si>
+    <t>0.1474 ( )</t>
+  </si>
+  <si>
+    <t>2.334e-08 (***)</t>
+  </si>
+  <si>
+    <t>0.082 (.)</t>
+  </si>
+  <si>
+    <t>0.01798 (*)</t>
+  </si>
+  <si>
+    <t>0.2934 ( )</t>
+  </si>
+  <si>
+    <t>0.0371 (*)</t>
+  </si>
+  <si>
+    <t>0.2407 ( )</t>
+  </si>
+  <si>
+    <t>2.509e-12 (***)</t>
+  </si>
+  <si>
+    <t>0.0000619 (***)</t>
+  </si>
+  <si>
+    <t>1.494e-11 (***)</t>
+  </si>
+  <si>
+    <t>0.0001039 (***)</t>
+  </si>
+  <si>
+    <t>0.1227 ( )</t>
+  </si>
+  <si>
+    <t>0.0592 (.)</t>
+  </si>
+  <si>
+    <t>0.0839 (.)</t>
+  </si>
+  <si>
+    <t>0.1758 ( )</t>
+  </si>
+  <si>
+    <t>0.935 ( )</t>
+  </si>
+  <si>
+    <t>0.0909 (.)</t>
+  </si>
+  <si>
+    <t>0.0106 (*)</t>
+  </si>
+  <si>
+    <t>0.0873 (.)</t>
+  </si>
+  <si>
+    <t>0.602 ( )</t>
+  </si>
+  <si>
+    <t>0.738 ( )</t>
+  </si>
+  <si>
+    <t>0.02668 (*)</t>
+  </si>
+  <si>
+    <t>0.00927 (**)</t>
+  </si>
+  <si>
+    <t>0.0001142 (***)</t>
+  </si>
+  <si>
+    <t>0.385 ( )</t>
+  </si>
+  <si>
+    <t>0.559 ( )</t>
+  </si>
+  <si>
+    <t>0.0002356 (***)</t>
+  </si>
+  <si>
+    <t>1.777e-06 (***)</t>
+  </si>
+  <si>
+    <t>0.00002137 (***)</t>
+  </si>
+  <si>
+    <t>0.067 (.)</t>
+  </si>
+  <si>
+    <t>0.00001872 (***)</t>
+  </si>
+  <si>
+    <t>0.000367 (***)</t>
+  </si>
+  <si>
+    <t>0.663 ( )</t>
+  </si>
+  <si>
+    <t>0.457 ( )</t>
+  </si>
+  <si>
+    <t>0.317 ( )</t>
+  </si>
+  <si>
+    <t>0.0616 (.)</t>
+  </si>
+  <si>
+    <t>0.884 ( )</t>
+  </si>
+  <si>
+    <t>0.01794 (*)</t>
+  </si>
+  <si>
+    <t>0.0529 (.)</t>
+  </si>
+  <si>
+    <t>0.1577 ( )</t>
+  </si>
+  <si>
+    <t>0.3105 ( )</t>
+  </si>
+  <si>
+    <t>0.1334 ( )</t>
+  </si>
+  <si>
+    <t>0.844 ( )</t>
+  </si>
+  <si>
+    <t>0.3121 ( )</t>
+  </si>
+  <si>
+    <t>0.0001808 (***)</t>
+  </si>
+  <si>
+    <t>8.95e-11 (***)</t>
+  </si>
+  <si>
+    <t>0.0000523 (***)</t>
+  </si>
+  <si>
+    <t>0.1892 ( )</t>
+  </si>
+  <si>
+    <t>0.00158 (**)</t>
+  </si>
+  <si>
+    <t>0.0000772 (***)</t>
+  </si>
+  <si>
+    <t>0.000327 (***)</t>
+  </si>
+  <si>
+    <t>1.56e-09 (***)</t>
+  </si>
+  <si>
+    <t>0.0001375 (***)</t>
+  </si>
+  <si>
+    <t>9.29e-08 (***)</t>
+  </si>
+  <si>
+    <t>1.061e-13 (***)</t>
+  </si>
+  <si>
+    <t>0.669 ( )</t>
+  </si>
+  <si>
+    <t>3.61e-06 (***)</t>
+  </si>
+  <si>
+    <t>0.00172 (**)</t>
+  </si>
+  <si>
+    <t>0.00769 (**)</t>
+  </si>
+  <si>
+    <t>0.0001894 (***)</t>
+  </si>
+  <si>
+    <t>0.00018 (***)</t>
+  </si>
+  <si>
     <t>F1 ass * int</t>
   </si>
   <si>
+    <t>0.0002552 (***)</t>
+  </si>
+  <si>
+    <t>2.887e-14 (***)</t>
+  </si>
+  <si>
+    <t>0.659 ( )</t>
+  </si>
+  <si>
+    <t>0.69 ( )</t>
+  </si>
+  <si>
+    <t>0.0783 (.)</t>
+  </si>
+  <si>
+    <t>0.00984 (**)</t>
+  </si>
+  <si>
+    <t>0.326 ( )</t>
+  </si>
+  <si>
+    <t>2.323e-07 (***)</t>
+  </si>
+  <si>
+    <t>0.001572 (**)</t>
+  </si>
+  <si>
+    <t>0.0445 (*)</t>
+  </si>
+  <si>
+    <t>5.1e-07 (***)</t>
+  </si>
+  <si>
+    <t>1.801e-07 (***)</t>
+  </si>
+  <si>
+    <t>0.861 ( )</t>
+  </si>
+  <si>
+    <t>0.0281 (*)</t>
+  </si>
+  <si>
+    <t>0.2211 ( )</t>
+  </si>
+  <si>
+    <t>0.778 ( )</t>
+  </si>
+  <si>
+    <t>0.613 ( )</t>
+  </si>
+  <si>
+    <t>0.02832 (*)</t>
+  </si>
+  <si>
+    <t>0.00494 (**)</t>
+  </si>
+  <si>
+    <t>0.211 ( )</t>
+  </si>
+  <si>
+    <t>0.293 ( )</t>
+  </si>
+  <si>
+    <t>0.2338 ( )</t>
+  </si>
+  <si>
+    <t>0.384 ( )</t>
+  </si>
+  <si>
+    <t>0.0516 (.)</t>
+  </si>
+  <si>
+    <t>0.973 ( )</t>
+  </si>
+  <si>
+    <t>0.831 ( )</t>
+  </si>
+  <si>
     <t>F2 ass * int</t>
+  </si>
+  <si>
+    <t>0.086 (.)</t>
+  </si>
+  <si>
+    <t>0.701 ( )</t>
+  </si>
+  <si>
+    <t>0.0659 (.)</t>
+  </si>
+  <si>
+    <t>0.964 ( )</t>
+  </si>
+  <si>
+    <t>0.567 ( )</t>
+  </si>
+  <si>
+    <t>0.0866 (.)</t>
+  </si>
+  <si>
+    <t>0.1396 ( )</t>
+  </si>
+  <si>
+    <t>0.0835 (.)</t>
+  </si>
+  <si>
+    <t>0.61 ( )</t>
+  </si>
+  <si>
+    <t>0.618 ( )</t>
+  </si>
+  <si>
+    <t>0.995 ( )</t>
+  </si>
+  <si>
+    <t>0.988 ( )</t>
+  </si>
+  <si>
+    <t>0.662 ( )</t>
+  </si>
+  <si>
+    <t>0.765 ( )</t>
+  </si>
+  <si>
+    <t>0.903 ( )</t>
+  </si>
+  <si>
+    <t>0.967 ( )</t>
   </si>
 </sst>
 </file>
@@ -1066,2973 +1579,3999 @@
       <c r="Q1" t="s">
         <v>15</v>
       </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q2" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="R2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q3" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="R3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" t="s">
+        <v>78</v>
+      </c>
+      <c r="T3" t="s">
+        <v>78</v>
+      </c>
+      <c r="U3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V3" t="s">
+        <v>78</v>
+      </c>
+      <c r="W3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H4" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I4" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J4" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K4" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M4" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="N4" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="O4" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="P4" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="Q4" t="s">
-        <v>288</v>
+        <v>210</v>
+      </c>
+      <c r="R4" t="s">
+        <v>240</v>
+      </c>
+      <c r="S4" t="s">
+        <v>240</v>
+      </c>
+      <c r="T4" t="s">
+        <v>267</v>
+      </c>
+      <c r="U4" t="s">
+        <v>267</v>
+      </c>
+      <c r="V4" t="s">
+        <v>294</v>
+      </c>
+      <c r="W4" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="J5" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K5" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L5" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M5" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="N5" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="O5" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="P5" t="s">
-        <v>311</v>
+        <v>373</v>
       </c>
       <c r="Q5" t="s">
-        <v>314</v>
+        <v>337</v>
+      </c>
+      <c r="R5" t="s">
+        <v>397</v>
+      </c>
+      <c r="S5" t="s">
+        <v>341</v>
+      </c>
+      <c r="T5" t="s">
+        <v>428</v>
+      </c>
+      <c r="U5" t="s">
+        <v>337</v>
+      </c>
+      <c r="V5" t="s">
+        <v>458</v>
+      </c>
+      <c r="W5" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H6" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I6" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J6" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="K6" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L6" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M6" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="N6" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="O6" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="P6" t="s">
-        <v>311</v>
+        <v>374</v>
       </c>
       <c r="Q6" t="s">
-        <v>312</v>
+        <v>339</v>
+      </c>
+      <c r="R6" t="s">
+        <v>398</v>
+      </c>
+      <c r="S6" t="s">
+        <v>340</v>
+      </c>
+      <c r="T6" t="s">
+        <v>429</v>
+      </c>
+      <c r="U6" t="s">
+        <v>337</v>
+      </c>
+      <c r="V6" t="s">
+        <v>459</v>
+      </c>
+      <c r="W6" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="I7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="M7" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="N7" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="O7" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="P7" t="s">
-        <v>311</v>
+        <v>375</v>
       </c>
       <c r="Q7" t="s">
-        <v>314</v>
+        <v>340</v>
+      </c>
+      <c r="R7" t="s">
+        <v>399</v>
+      </c>
+      <c r="S7" t="s">
+        <v>340</v>
+      </c>
+      <c r="T7" t="s">
+        <v>430</v>
+      </c>
+      <c r="U7" t="s">
+        <v>337</v>
+      </c>
+      <c r="V7" t="s">
+        <v>460</v>
+      </c>
+      <c r="W7" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F8" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G8" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H8" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="I8" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="J8" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="K8" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L8" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="M8" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="N8" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="O8" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="P8" t="s">
-        <v>314</v>
+        <v>376</v>
       </c>
       <c r="Q8" t="s">
-        <v>314</v>
+        <v>337</v>
+      </c>
+      <c r="R8" t="s">
+        <v>400</v>
+      </c>
+      <c r="S8" t="s">
+        <v>341</v>
+      </c>
+      <c r="T8" t="s">
+        <v>431</v>
+      </c>
+      <c r="U8" t="s">
+        <v>340</v>
+      </c>
+      <c r="V8" t="s">
+        <v>346</v>
+      </c>
+      <c r="W8" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G9" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="I9" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="J9" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K9" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L9" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="M9" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="N9" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="O9" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="P9" t="s">
-        <v>313</v>
+        <v>377</v>
       </c>
       <c r="Q9" t="s">
-        <v>314</v>
+        <v>337</v>
+      </c>
+      <c r="R9" t="s">
+        <v>401</v>
+      </c>
+      <c r="S9" t="s">
+        <v>338</v>
+      </c>
+      <c r="T9" t="s">
+        <v>432</v>
+      </c>
+      <c r="U9" t="s">
+        <v>339</v>
+      </c>
+      <c r="V9" t="s">
+        <v>461</v>
+      </c>
+      <c r="W9" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q10" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="R10" t="s">
+        <v>78</v>
+      </c>
+      <c r="S10" t="s">
+        <v>78</v>
+      </c>
+      <c r="T10" t="s">
+        <v>78</v>
+      </c>
+      <c r="U10" t="s">
+        <v>78</v>
+      </c>
+      <c r="V10" t="s">
+        <v>78</v>
+      </c>
+      <c r="W10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q11" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="R11" t="s">
+        <v>78</v>
+      </c>
+      <c r="S11" t="s">
+        <v>78</v>
+      </c>
+      <c r="T11" t="s">
+        <v>78</v>
+      </c>
+      <c r="U11" t="s">
+        <v>78</v>
+      </c>
+      <c r="V11" t="s">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H12" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I12" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J12" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K12" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L12" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="N12" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="O12" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="P12" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="Q12" t="s">
-        <v>288</v>
+        <v>210</v>
+      </c>
+      <c r="R12" t="s">
+        <v>240</v>
+      </c>
+      <c r="S12" t="s">
+        <v>240</v>
+      </c>
+      <c r="T12" t="s">
+        <v>267</v>
+      </c>
+      <c r="U12" t="s">
+        <v>267</v>
+      </c>
+      <c r="V12" t="s">
+        <v>294</v>
+      </c>
+      <c r="W12" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G13" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H13" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="I13" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J13" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="K13" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="L13" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M13" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="N13" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="O13" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="P13" t="s">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="Q13" t="s">
-        <v>314</v>
+        <v>337</v>
+      </c>
+      <c r="R13" t="s">
+        <v>402</v>
+      </c>
+      <c r="S13" t="s">
+        <v>341</v>
+      </c>
+      <c r="T13" t="s">
+        <v>433</v>
+      </c>
+      <c r="U13" t="s">
+        <v>337</v>
+      </c>
+      <c r="V13" t="s">
+        <v>462</v>
+      </c>
+      <c r="W13" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H14" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="I14" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="J14" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="K14" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L14" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="M14" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="N14" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="O14" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="P14" t="s">
-        <v>311</v>
+        <v>379</v>
       </c>
       <c r="Q14" t="s">
-        <v>312</v>
+        <v>340</v>
+      </c>
+      <c r="R14" t="s">
+        <v>403</v>
+      </c>
+      <c r="S14" t="s">
+        <v>340</v>
+      </c>
+      <c r="T14" t="s">
+        <v>434</v>
+      </c>
+      <c r="U14" t="s">
+        <v>337</v>
+      </c>
+      <c r="V14" t="s">
+        <v>463</v>
+      </c>
+      <c r="W14" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H15" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="I15" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="J15" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K15" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L15" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="M15" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="N15" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="O15" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="P15" t="s">
-        <v>311</v>
+        <v>380</v>
       </c>
       <c r="Q15" t="s">
-        <v>313</v>
+        <v>340</v>
+      </c>
+      <c r="R15" t="s">
+        <v>404</v>
+      </c>
+      <c r="S15" t="s">
+        <v>340</v>
+      </c>
+      <c r="T15" t="s">
+        <v>318</v>
+      </c>
+      <c r="U15" t="s">
+        <v>337</v>
+      </c>
+      <c r="V15" t="s">
+        <v>464</v>
+      </c>
+      <c r="W15" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H16" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="I16" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="J16" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K16" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L16" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M16" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="N16" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="O16" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="P16" t="s">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="Q16" t="s">
-        <v>314</v>
+        <v>337</v>
+      </c>
+      <c r="R16" t="s">
+        <v>405</v>
+      </c>
+      <c r="S16" t="s">
+        <v>338</v>
+      </c>
+      <c r="T16" t="s">
+        <v>435</v>
+      </c>
+      <c r="U16" t="s">
+        <v>337</v>
+      </c>
+      <c r="V16" t="s">
+        <v>465</v>
+      </c>
+      <c r="W16" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H17" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="I17" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="J17" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K17" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M17" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="N17" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="O17" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="P17" t="s">
-        <v>311</v>
+        <v>382</v>
       </c>
       <c r="Q17" t="s">
-        <v>314</v>
+        <v>337</v>
+      </c>
+      <c r="R17" t="s">
+        <v>406</v>
+      </c>
+      <c r="S17" t="s">
+        <v>339</v>
+      </c>
+      <c r="T17" t="s">
+        <v>436</v>
+      </c>
+      <c r="U17" t="s">
+        <v>337</v>
+      </c>
+      <c r="V17" t="s">
+        <v>466</v>
+      </c>
+      <c r="W17" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q18" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="R18" t="s">
+        <v>78</v>
+      </c>
+      <c r="S18" t="s">
+        <v>78</v>
+      </c>
+      <c r="T18" t="s">
+        <v>78</v>
+      </c>
+      <c r="U18" t="s">
+        <v>78</v>
+      </c>
+      <c r="V18" t="s">
+        <v>78</v>
+      </c>
+      <c r="W18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q19" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="R19" t="s">
+        <v>78</v>
+      </c>
+      <c r="S19" t="s">
+        <v>78</v>
+      </c>
+      <c r="T19" t="s">
+        <v>78</v>
+      </c>
+      <c r="U19" t="s">
+        <v>78</v>
+      </c>
+      <c r="V19" t="s">
+        <v>78</v>
+      </c>
+      <c r="W19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F20" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G20" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H20" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I20" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J20" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K20" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L20" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M20" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="N20" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="O20" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="P20" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="Q20" t="s">
-        <v>288</v>
+        <v>210</v>
+      </c>
+      <c r="R20" t="s">
+        <v>240</v>
+      </c>
+      <c r="S20" t="s">
+        <v>240</v>
+      </c>
+      <c r="T20" t="s">
+        <v>267</v>
+      </c>
+      <c r="U20" t="s">
+        <v>267</v>
+      </c>
+      <c r="V20" t="s">
+        <v>294</v>
+      </c>
+      <c r="W20" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F21" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H21" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I21" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="J21" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K21" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L21" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="M21" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="N21" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="O21" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="P21" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q21" t="s">
-        <v>314</v>
+        <v>337</v>
+      </c>
+      <c r="R21" t="s">
+        <v>407</v>
+      </c>
+      <c r="S21" t="s">
+        <v>337</v>
+      </c>
+      <c r="T21" t="s">
+        <v>437</v>
+      </c>
+      <c r="U21" t="s">
+        <v>337</v>
+      </c>
+      <c r="V21" t="s">
+        <v>467</v>
+      </c>
+      <c r="W21" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F22" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G22" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H22" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="I22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="J22" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="K22" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L22" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M22" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="N22" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="O22" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="P22" t="s">
-        <v>311</v>
+        <v>383</v>
       </c>
       <c r="Q22" t="s">
-        <v>314</v>
+        <v>340</v>
+      </c>
+      <c r="R22" t="s">
+        <v>408</v>
+      </c>
+      <c r="S22" t="s">
+        <v>340</v>
+      </c>
+      <c r="T22" t="s">
+        <v>318</v>
+      </c>
+      <c r="U22" t="s">
+        <v>337</v>
+      </c>
+      <c r="V22" t="s">
+        <v>468</v>
+      </c>
+      <c r="W22" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F23" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G23" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H23" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="I23" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="J23" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K23" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L23" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="M23" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="N23" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="O23" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="P23" t="s">
-        <v>311</v>
+        <v>384</v>
       </c>
       <c r="Q23" t="s">
-        <v>315</v>
+        <v>340</v>
+      </c>
+      <c r="R23" t="s">
+        <v>409</v>
+      </c>
+      <c r="S23" t="s">
+        <v>340</v>
+      </c>
+      <c r="T23" t="s">
+        <v>438</v>
+      </c>
+      <c r="U23" t="s">
+        <v>337</v>
+      </c>
+      <c r="V23" t="s">
+        <v>469</v>
+      </c>
+      <c r="W23" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F24" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G24" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H24" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="I24" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="J24" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K24" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L24" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="M24" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="N24" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="O24" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="P24" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q24" t="s">
-        <v>314</v>
+        <v>337</v>
+      </c>
+      <c r="R24" t="s">
+        <v>410</v>
+      </c>
+      <c r="S24" t="s">
+        <v>337</v>
+      </c>
+      <c r="T24" t="s">
+        <v>439</v>
+      </c>
+      <c r="U24" t="s">
+        <v>340</v>
+      </c>
+      <c r="V24" t="s">
+        <v>470</v>
+      </c>
+      <c r="W24" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F25" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G25" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H25" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="I25" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="J25" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K25" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="L25" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="M25" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="N25" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="O25" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="P25" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q25" t="s">
-        <v>314</v>
+        <v>337</v>
+      </c>
+      <c r="R25" t="s">
+        <v>411</v>
+      </c>
+      <c r="S25" t="s">
+        <v>337</v>
+      </c>
+      <c r="T25" t="s">
+        <v>440</v>
+      </c>
+      <c r="U25" t="s">
+        <v>337</v>
+      </c>
+      <c r="V25" t="s">
+        <v>471</v>
+      </c>
+      <c r="W25" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q26" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="R26" t="s">
+        <v>78</v>
+      </c>
+      <c r="S26" t="s">
+        <v>78</v>
+      </c>
+      <c r="T26" t="s">
+        <v>78</v>
+      </c>
+      <c r="U26" t="s">
+        <v>78</v>
+      </c>
+      <c r="V26" t="s">
+        <v>78</v>
+      </c>
+      <c r="W26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q27" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="R27" t="s">
+        <v>78</v>
+      </c>
+      <c r="S27" t="s">
+        <v>78</v>
+      </c>
+      <c r="T27" t="s">
+        <v>78</v>
+      </c>
+      <c r="U27" t="s">
+        <v>78</v>
+      </c>
+      <c r="V27" t="s">
+        <v>78</v>
+      </c>
+      <c r="W27" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G28" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H28" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I28" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J28" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K28" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M28" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="N28" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="O28" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="P28" t="s">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="Q28" t="s">
-        <v>317</v>
+        <v>164</v>
+      </c>
+      <c r="R28" t="s">
+        <v>240</v>
+      </c>
+      <c r="S28" t="s">
+        <v>240</v>
+      </c>
+      <c r="T28" t="s">
+        <v>267</v>
+      </c>
+      <c r="U28" t="s">
+        <v>267</v>
+      </c>
+      <c r="V28" t="s">
+        <v>472</v>
+      </c>
+      <c r="W28" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F29" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G29" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H29" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="I29" t="s">
+        <v>255</v>
+      </c>
+      <c r="J29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K29" t="s">
         <v>249</v>
       </c>
-      <c r="J29" t="s">
-        <v>242</v>
-      </c>
-      <c r="K29" t="s">
-        <v>243</v>
-      </c>
       <c r="L29" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="M29" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="N29" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="O29" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="P29" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q29" t="s">
-        <v>315</v>
+        <v>337</v>
+      </c>
+      <c r="R29" t="s">
+        <v>412</v>
+      </c>
+      <c r="S29" t="s">
+        <v>337</v>
+      </c>
+      <c r="T29" t="s">
+        <v>441</v>
+      </c>
+      <c r="U29" t="s">
+        <v>339</v>
+      </c>
+      <c r="V29" t="s">
+        <v>473</v>
+      </c>
+      <c r="W29" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L30" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M30" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N30" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O30" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P30" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q30" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="R30" t="s">
+        <v>78</v>
+      </c>
+      <c r="S30" t="s">
+        <v>78</v>
+      </c>
+      <c r="T30" t="s">
+        <v>78</v>
+      </c>
+      <c r="U30" t="s">
+        <v>78</v>
+      </c>
+      <c r="V30" t="s">
+        <v>78</v>
+      </c>
+      <c r="W30" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F31" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G31" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H31" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="I31" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="J31" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K31" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L31" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="M31" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="N31" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="O31" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="P31" t="s">
-        <v>313</v>
+        <v>385</v>
       </c>
       <c r="Q31" t="s">
-        <v>314</v>
+        <v>337</v>
+      </c>
+      <c r="R31" t="s">
+        <v>413</v>
+      </c>
+      <c r="S31" t="s">
+        <v>341</v>
+      </c>
+      <c r="T31" t="s">
+        <v>442</v>
+      </c>
+      <c r="U31" t="s">
+        <v>339</v>
+      </c>
+      <c r="V31" t="s">
+        <v>474</v>
+      </c>
+      <c r="W31" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E32" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F32" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G32" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H32" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="I32" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="J32" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K32" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="L32" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="M32" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="N32" t="s">
-        <v>311</v>
+        <v>359</v>
       </c>
       <c r="O32" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="P32" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q32" t="s">
-        <v>315</v>
+        <v>337</v>
+      </c>
+      <c r="R32" t="s">
+        <v>414</v>
+      </c>
+      <c r="S32" t="s">
+        <v>337</v>
+      </c>
+      <c r="T32" t="s">
+        <v>443</v>
+      </c>
+      <c r="U32" t="s">
+        <v>337</v>
+      </c>
+      <c r="V32" t="s">
+        <v>475</v>
+      </c>
+      <c r="W32" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F33" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G33" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H33" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="I33" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="J33" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K33" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="M33" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="N33" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="O33" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="P33" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q33" t="s">
-        <v>314</v>
+        <v>337</v>
+      </c>
+      <c r="R33" t="s">
+        <v>415</v>
+      </c>
+      <c r="S33" t="s">
+        <v>337</v>
+      </c>
+      <c r="T33" t="s">
+        <v>444</v>
+      </c>
+      <c r="U33" t="s">
+        <v>337</v>
+      </c>
+      <c r="V33" t="s">
+        <v>476</v>
+      </c>
+      <c r="W33" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L34" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M34" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N34" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O34" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P34" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q34" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="R34" t="s">
+        <v>78</v>
+      </c>
+      <c r="S34" t="s">
+        <v>78</v>
+      </c>
+      <c r="T34" t="s">
+        <v>78</v>
+      </c>
+      <c r="U34" t="s">
+        <v>78</v>
+      </c>
+      <c r="V34" t="s">
+        <v>78</v>
+      </c>
+      <c r="W34" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L35" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M35" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N35" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O35" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P35" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q35" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="R35" t="s">
+        <v>78</v>
+      </c>
+      <c r="S35" t="s">
+        <v>78</v>
+      </c>
+      <c r="T35" t="s">
+        <v>78</v>
+      </c>
+      <c r="U35" t="s">
+        <v>78</v>
+      </c>
+      <c r="V35" t="s">
+        <v>78</v>
+      </c>
+      <c r="W35" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F36" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G36" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H36" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I36" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J36" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K36" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M36" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="N36" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="O36" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="P36" t="s">
-        <v>316</v>
+        <v>164</v>
       </c>
       <c r="Q36" t="s">
-        <v>317</v>
+        <v>210</v>
+      </c>
+      <c r="R36" t="s">
+        <v>195</v>
+      </c>
+      <c r="S36" t="s">
+        <v>240</v>
+      </c>
+      <c r="T36" t="s">
+        <v>445</v>
+      </c>
+      <c r="U36" t="s">
+        <v>445</v>
+      </c>
+      <c r="V36" t="s">
+        <v>472</v>
+      </c>
+      <c r="W36" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F37" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G37" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H37" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="I37" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="J37" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="K37" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L37" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="N37" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="O37" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="P37" t="s">
-        <v>311</v>
+        <v>386</v>
       </c>
       <c r="Q37" t="s">
-        <v>314</v>
+        <v>341</v>
+      </c>
+      <c r="R37" t="s">
+        <v>416</v>
+      </c>
+      <c r="S37" t="s">
+        <v>340</v>
+      </c>
+      <c r="T37" t="s">
+        <v>446</v>
+      </c>
+      <c r="U37" t="s">
+        <v>337</v>
+      </c>
+      <c r="V37" t="s">
+        <v>477</v>
+      </c>
+      <c r="W37" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E38" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L38" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M38" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N38" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O38" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P38" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q38" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="R38" t="s">
+        <v>78</v>
+      </c>
+      <c r="S38" t="s">
+        <v>78</v>
+      </c>
+      <c r="T38" t="s">
+        <v>78</v>
+      </c>
+      <c r="U38" t="s">
+        <v>78</v>
+      </c>
+      <c r="V38" t="s">
+        <v>78</v>
+      </c>
+      <c r="W38" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F39" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G39" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H39" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="I39" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J39" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K39" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L39" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="M39" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="N39" t="s">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="O39" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="P39" t="s">
-        <v>311</v>
+        <v>387</v>
       </c>
       <c r="Q39" t="s">
-        <v>315</v>
+        <v>338</v>
+      </c>
+      <c r="R39" t="s">
+        <v>417</v>
+      </c>
+      <c r="S39" t="s">
+        <v>340</v>
+      </c>
+      <c r="T39" t="s">
+        <v>447</v>
+      </c>
+      <c r="U39" t="s">
+        <v>337</v>
+      </c>
+      <c r="V39" t="s">
+        <v>478</v>
+      </c>
+      <c r="W39" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F40" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G40" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H40" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="I40" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J40" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="K40" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="M40" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="N40" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="O40" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="P40" t="s">
-        <v>314</v>
+        <v>388</v>
       </c>
       <c r="Q40" t="s">
-        <v>314</v>
+        <v>340</v>
+      </c>
+      <c r="R40" t="s">
+        <v>418</v>
+      </c>
+      <c r="S40" t="s">
+        <v>340</v>
+      </c>
+      <c r="T40" t="s">
+        <v>448</v>
+      </c>
+      <c r="U40" t="s">
+        <v>340</v>
+      </c>
+      <c r="V40" t="s">
+        <v>479</v>
+      </c>
+      <c r="W40" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F41" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G41" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H41" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="I41" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="J41" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="K41" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L41" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="M41" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="N41" t="s">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="O41" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="P41" t="s">
-        <v>314</v>
+        <v>389</v>
       </c>
       <c r="Q41" t="s">
-        <v>315</v>
+        <v>338</v>
+      </c>
+      <c r="R41" t="s">
+        <v>419</v>
+      </c>
+      <c r="S41" t="s">
+        <v>341</v>
+      </c>
+      <c r="T41" t="s">
+        <v>449</v>
+      </c>
+      <c r="U41" t="s">
+        <v>340</v>
+      </c>
+      <c r="V41" t="s">
+        <v>480</v>
+      </c>
+      <c r="W41" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q42" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="R42" t="s">
+        <v>78</v>
+      </c>
+      <c r="S42" t="s">
+        <v>78</v>
+      </c>
+      <c r="T42" t="s">
+        <v>78</v>
+      </c>
+      <c r="U42" t="s">
+        <v>78</v>
+      </c>
+      <c r="V42" t="s">
+        <v>78</v>
+      </c>
+      <c r="W42" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E43" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L43" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M43" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N43" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P43" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q43" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="R43" t="s">
+        <v>78</v>
+      </c>
+      <c r="S43" t="s">
+        <v>78</v>
+      </c>
+      <c r="T43" t="s">
+        <v>78</v>
+      </c>
+      <c r="U43" t="s">
+        <v>78</v>
+      </c>
+      <c r="V43" t="s">
+        <v>78</v>
+      </c>
+      <c r="W43" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F44" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G44" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H44" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I44" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J44" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K44" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L44" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M44" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="N44" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="O44" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="P44" t="s">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="Q44" t="s">
-        <v>317</v>
+        <v>210</v>
+      </c>
+      <c r="R44" t="s">
+        <v>195</v>
+      </c>
+      <c r="S44" t="s">
+        <v>240</v>
+      </c>
+      <c r="T44" t="s">
+        <v>267</v>
+      </c>
+      <c r="U44" t="s">
+        <v>267</v>
+      </c>
+      <c r="V44" t="s">
+        <v>472</v>
+      </c>
+      <c r="W44" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E45" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F45" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G45" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H45" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="I45" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="J45" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="K45" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L45" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M45" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="N45" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
       <c r="O45" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="P45" t="s">
-        <v>315</v>
+        <v>390</v>
       </c>
       <c r="Q45" t="s">
-        <v>314</v>
+        <v>340</v>
+      </c>
+      <c r="R45" t="s">
+        <v>420</v>
+      </c>
+      <c r="S45" t="s">
+        <v>340</v>
+      </c>
+      <c r="T45" t="s">
+        <v>450</v>
+      </c>
+      <c r="U45" t="s">
+        <v>341</v>
+      </c>
+      <c r="V45" t="s">
+        <v>481</v>
+      </c>
+      <c r="W45" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E46" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K46" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L46" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M46" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N46" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O46" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P46" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q46" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="R46" t="s">
+        <v>78</v>
+      </c>
+      <c r="S46" t="s">
+        <v>78</v>
+      </c>
+      <c r="T46" t="s">
+        <v>78</v>
+      </c>
+      <c r="U46" t="s">
+        <v>78</v>
+      </c>
+      <c r="V46" t="s">
+        <v>78</v>
+      </c>
+      <c r="W46" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E47" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F47" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G47" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H47" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="I47" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="J47" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K47" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="L47" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="M47" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="N47" t="s">
-        <v>311</v>
+        <v>366</v>
       </c>
       <c r="O47" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="P47" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q47" t="s">
-        <v>314</v>
+        <v>337</v>
+      </c>
+      <c r="R47" t="s">
+        <v>421</v>
+      </c>
+      <c r="S47" t="s">
+        <v>338</v>
+      </c>
+      <c r="T47" t="s">
+        <v>451</v>
+      </c>
+      <c r="U47" t="s">
+        <v>339</v>
+      </c>
+      <c r="V47" t="s">
+        <v>482</v>
+      </c>
+      <c r="W47" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D48" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E48" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F48" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G48" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="H48" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="I48" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="J48" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="K48" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="L48" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M48" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="N48" t="s">
-        <v>311</v>
+        <v>367</v>
       </c>
       <c r="O48" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="P48" t="s">
-        <v>314</v>
+        <v>391</v>
       </c>
       <c r="Q48" t="s">
-        <v>314</v>
+        <v>337</v>
+      </c>
+      <c r="R48" t="s">
+        <v>422</v>
+      </c>
+      <c r="S48" t="s">
+        <v>341</v>
+      </c>
+      <c r="T48" t="s">
+        <v>452</v>
+      </c>
+      <c r="U48" t="s">
+        <v>340</v>
+      </c>
+      <c r="V48" t="s">
+        <v>483</v>
+      </c>
+      <c r="W48" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E49" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F49" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G49" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H49" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I49" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="J49" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K49" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L49" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M49" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="N49" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c r="O49" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="P49" t="s">
-        <v>311</v>
+        <v>392</v>
       </c>
       <c r="Q49" t="s">
-        <v>314</v>
+        <v>337</v>
+      </c>
+      <c r="R49" t="s">
+        <v>423</v>
+      </c>
+      <c r="S49" t="s">
+        <v>340</v>
+      </c>
+      <c r="T49" t="s">
+        <v>453</v>
+      </c>
+      <c r="U49" t="s">
+        <v>337</v>
+      </c>
+      <c r="V49" t="s">
+        <v>484</v>
+      </c>
+      <c r="W49" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D50" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E50" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J50" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K50" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L50" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M50" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N50" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O50" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P50" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q50" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="R50" t="s">
+        <v>78</v>
+      </c>
+      <c r="S50" t="s">
+        <v>78</v>
+      </c>
+      <c r="T50" t="s">
+        <v>78</v>
+      </c>
+      <c r="U50" t="s">
+        <v>78</v>
+      </c>
+      <c r="V50" t="s">
+        <v>78</v>
+      </c>
+      <c r="W50" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D51" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E51" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K51" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L51" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M51" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N51" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O51" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P51" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q51" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="R51" t="s">
+        <v>78</v>
+      </c>
+      <c r="S51" t="s">
+        <v>78</v>
+      </c>
+      <c r="T51" t="s">
+        <v>78</v>
+      </c>
+      <c r="U51" t="s">
+        <v>78</v>
+      </c>
+      <c r="V51" t="s">
+        <v>78</v>
+      </c>
+      <c r="W51" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D52" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E52" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F52" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G52" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H52" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I52" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J52" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K52" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L52" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M52" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="N52" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="O52" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="P52" t="s">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="Q52" t="s">
-        <v>317</v>
+        <v>210</v>
+      </c>
+      <c r="R52" t="s">
+        <v>195</v>
+      </c>
+      <c r="S52" t="s">
+        <v>240</v>
+      </c>
+      <c r="T52" t="s">
+        <v>267</v>
+      </c>
+      <c r="U52" t="s">
+        <v>267</v>
+      </c>
+      <c r="V52" t="s">
+        <v>472</v>
+      </c>
+      <c r="W52" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D53" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E53" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F53" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G53" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H53" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="I53" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="J53" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K53" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L53" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M53" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="N53" t="s">
-        <v>311</v>
+        <v>369</v>
       </c>
       <c r="O53" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="P53" t="s">
-        <v>313</v>
+        <v>393</v>
       </c>
       <c r="Q53" t="s">
-        <v>314</v>
+        <v>337</v>
+      </c>
+      <c r="R53" t="s">
+        <v>424</v>
+      </c>
+      <c r="S53" t="s">
+        <v>340</v>
+      </c>
+      <c r="T53" t="s">
+        <v>454</v>
+      </c>
+      <c r="U53" t="s">
+        <v>339</v>
+      </c>
+      <c r="V53" t="s">
+        <v>485</v>
+      </c>
+      <c r="W53" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D54" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E54" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I54" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L54" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M54" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N54" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O54" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P54" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q54" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="R54" t="s">
+        <v>78</v>
+      </c>
+      <c r="S54" t="s">
+        <v>78</v>
+      </c>
+      <c r="T54" t="s">
+        <v>78</v>
+      </c>
+      <c r="U54" t="s">
+        <v>78</v>
+      </c>
+      <c r="V54" t="s">
+        <v>78</v>
+      </c>
+      <c r="W54" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D55" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E55" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F55" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G55" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H55" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="I55" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="J55" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K55" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L55" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M55" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="N55" t="s">
-        <v>311</v>
+        <v>370</v>
       </c>
       <c r="O55" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="P55" t="s">
-        <v>312</v>
+        <v>394</v>
       </c>
       <c r="Q55" t="s">
-        <v>314</v>
+        <v>337</v>
+      </c>
+      <c r="R55" t="s">
+        <v>425</v>
+      </c>
+      <c r="S55" t="s">
+        <v>340</v>
+      </c>
+      <c r="T55" t="s">
+        <v>455</v>
+      </c>
+      <c r="U55" t="s">
+        <v>338</v>
+      </c>
+      <c r="V55" t="s">
+        <v>486</v>
+      </c>
+      <c r="W55" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D56" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E56" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F56" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G56" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H56" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I56" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="J56" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="K56" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="L56" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M56" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="N56" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="O56" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="P56" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="Q56" t="s">
-        <v>314</v>
+        <v>340</v>
+      </c>
+      <c r="R56" t="s">
+        <v>426</v>
+      </c>
+      <c r="S56" t="s">
+        <v>340</v>
+      </c>
+      <c r="T56" t="s">
+        <v>456</v>
+      </c>
+      <c r="U56" t="s">
+        <v>337</v>
+      </c>
+      <c r="V56" t="s">
+        <v>487</v>
+      </c>
+      <c r="W56" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D57" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E57" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F57" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G57" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="H57" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="I57" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="J57" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K57" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L57" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M57" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="N57" t="s">
-        <v>315</v>
+        <v>372</v>
       </c>
       <c r="O57" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="P57" t="s">
-        <v>311</v>
+        <v>396</v>
       </c>
       <c r="Q57" t="s">
-        <v>314</v>
+        <v>341</v>
+      </c>
+      <c r="R57" t="s">
+        <v>427</v>
+      </c>
+      <c r="S57" t="s">
+        <v>340</v>
+      </c>
+      <c r="T57" t="s">
+        <v>457</v>
+      </c>
+      <c r="U57" t="s">
+        <v>337</v>
+      </c>
+      <c r="V57" t="s">
+        <v>488</v>
+      </c>
+      <c r="W57" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/Tables_Figures/output/table23_SR1 & 2_regression_model_comparisons.xlsx
+++ b/Tables_Figures/output/table23_SR1 & 2_regression_model_comparisons.xlsx
@@ -1034,7 +1034,7 @@
     <t>&lt;.01 (**)</t>
   </si>
   <si>
-    <t xml:space="preserve">  ( )</t>
+    <t>&gt;.10 ( )</t>
   </si>
   <si>
     <t>&lt;.10 (.)</t>

--- a/Tables_Figures/output/table23_SR1 & 2_regression_model_comparisons.xlsx
+++ b/Tables_Figures/output/table23_SR1 & 2_regression_model_comparisons.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="439">
   <si>
     <t>SUBEXPT</t>
   </si>
@@ -80,265 +80,115 @@
     <t>relintf1.round.ps.1</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>REL * INT ANALYSIS</t>
+  </si>
+  <si>
+    <t>SemRel</t>
+  </si>
+  <si>
+    <t>CatCoord</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>SemProp</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>REL * INT(RES)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>REL(RES) * INT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>ASSOC * INT ANALYSIS</t>
+  </si>
+  <si>
+    <t>REL * ASSOC ANALYSIS</t>
+  </si>
+  <si>
+    <t>REL * ASSOC(RES)</t>
+  </si>
+  <si>
+    <t>REL(RES) * ASSOC</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>10a</t>
+  </si>
+  <si>
+    <t>100a</t>
+  </si>
+  <si>
+    <t>10000a</t>
+  </si>
+  <si>
+    <t>1000a</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>10b</t>
+  </si>
+  <si>
+    <t>100b</t>
+  </si>
+  <si>
+    <t>10000b</t>
+  </si>
+  <si>
+    <t>1000b</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>REL * INT ANALYSIS</t>
-  </si>
-  <si>
-    <t>SemRel</t>
-  </si>
-  <si>
-    <t>CatCoord</t>
-  </si>
-  <si>
-    <t>Property</t>
-  </si>
-  <si>
-    <t>SemProp</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>REL * INT(RES)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>REL(RES) * INT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>ASSOC * INT ANALYSIS</t>
-  </si>
-  <si>
-    <t>REL * ASSOC ANALYSIS</t>
-  </si>
-  <si>
-    <t>REL * ASSOC(RES)</t>
-  </si>
-  <si>
-    <t>REL(RES) * ASSOC</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1a</t>
-  </si>
-  <si>
-    <t>10a</t>
-  </si>
-  <si>
-    <t>100a</t>
-  </si>
-  <si>
-    <t>10000a</t>
-  </si>
-  <si>
-    <t>1000a</t>
-  </si>
-  <si>
-    <t>1b</t>
-  </si>
-  <si>
-    <t>10b</t>
-  </si>
-  <si>
-    <t>100b</t>
-  </si>
-  <si>
-    <t>10000b</t>
-  </si>
-  <si>
-    <t>1000b</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>2000</t>
   </si>
   <si>
     <t>300</t>
@@ -1530,71 +1380,70 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1603,70 +1452,67 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="R2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="S2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="T2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="U2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="V2" t="s">
-        <v>78</v>
-      </c>
-      <c r="W2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -1674,3904 +1520,3739 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="R3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="S3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="T3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="U3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="V3" t="s">
-        <v>78</v>
-      </c>
-      <c r="W3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="H4" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="I4" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="J4" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="K4" t="s">
-        <v>294</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="N4" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="O4" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="P4" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="Q4" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="R4" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="S4" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="T4" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="U4" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="V4" t="s">
-        <v>294</v>
-      </c>
-      <c r="W4" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="H5" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="I5" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="J5" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="K5" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="L5" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="M5" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="N5" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="O5" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="P5" t="s">
-        <v>373</v>
+        <v>287</v>
       </c>
       <c r="Q5" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="R5" t="s">
-        <v>397</v>
+        <v>291</v>
       </c>
       <c r="S5" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="T5" t="s">
-        <v>428</v>
+        <v>287</v>
       </c>
       <c r="U5" t="s">
-        <v>337</v>
+        <v>408</v>
       </c>
       <c r="V5" t="s">
-        <v>458</v>
-      </c>
-      <c r="W5" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="H6" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="I6" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="J6" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="K6" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="L6" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="M6" t="s">
-        <v>337</v>
+        <v>293</v>
       </c>
       <c r="N6" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="O6" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="P6" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="Q6" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="R6" t="s">
-        <v>398</v>
+        <v>290</v>
       </c>
       <c r="S6" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="T6" t="s">
-        <v>429</v>
+        <v>287</v>
       </c>
       <c r="U6" t="s">
-        <v>337</v>
+        <v>409</v>
       </c>
       <c r="V6" t="s">
-        <v>459</v>
-      </c>
-      <c r="W6" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="H7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="I7" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="J7" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="K7" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="L7" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="M7" t="s">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="N7" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="O7" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="P7" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="Q7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="R7" t="s">
-        <v>399</v>
+        <v>290</v>
       </c>
       <c r="S7" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="T7" t="s">
-        <v>430</v>
+        <v>287</v>
       </c>
       <c r="U7" t="s">
-        <v>337</v>
+        <v>410</v>
       </c>
       <c r="V7" t="s">
-        <v>460</v>
-      </c>
-      <c r="W7" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
         <v>83</v>
       </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" t="s">
-        <v>123</v>
-      </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="G8" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="H8" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="I8" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="J8" t="s">
-        <v>271</v>
+        <v>171</v>
       </c>
       <c r="K8" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="L8" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="M8" t="s">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="N8" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="O8" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="P8" t="s">
-        <v>376</v>
+        <v>287</v>
       </c>
       <c r="Q8" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="R8" t="s">
-        <v>400</v>
+        <v>291</v>
       </c>
       <c r="S8" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="T8" t="s">
-        <v>431</v>
+        <v>290</v>
       </c>
       <c r="U8" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="V8" t="s">
-        <v>346</v>
-      </c>
-      <c r="W8" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
         <v>135</v>
       </c>
-      <c r="F9" t="s">
-        <v>154</v>
-      </c>
       <c r="G9" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="H9" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="I9" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="J9" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="K9" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="L9" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="M9" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="N9" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="O9" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="P9" t="s">
-        <v>377</v>
+        <v>287</v>
       </c>
       <c r="Q9" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="R9" t="s">
-        <v>401</v>
+        <v>288</v>
       </c>
       <c r="S9" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="T9" t="s">
-        <v>432</v>
+        <v>289</v>
       </c>
       <c r="U9" t="s">
-        <v>339</v>
+        <v>411</v>
       </c>
       <c r="V9" t="s">
-        <v>461</v>
-      </c>
-      <c r="W9" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M10" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="R10" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="S10" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="T10" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="U10" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="V10" t="s">
-        <v>78</v>
-      </c>
-      <c r="W10" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M11" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="O11" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="P11" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="Q11" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="R11" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="S11" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="T11" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="U11" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="V11" t="s">
-        <v>78</v>
-      </c>
-      <c r="W11" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="H12" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="I12" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="J12" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="K12" t="s">
-        <v>294</v>
+        <v>99</v>
       </c>
       <c r="L12" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="M12" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="N12" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="P12" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="Q12" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="R12" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="S12" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="T12" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="U12" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="V12" t="s">
-        <v>294</v>
-      </c>
-      <c r="W12" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" t="s">
         <v>136</v>
       </c>
-      <c r="F13" t="s">
-        <v>155</v>
-      </c>
       <c r="G13" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="H13" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="I13" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="J13" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="K13" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="L13" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="M13" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="N13" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="O13" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="P13" t="s">
-        <v>378</v>
+        <v>287</v>
       </c>
       <c r="Q13" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="R13" t="s">
-        <v>402</v>
+        <v>291</v>
       </c>
       <c r="S13" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="T13" t="s">
-        <v>433</v>
+        <v>287</v>
       </c>
       <c r="U13" t="s">
-        <v>337</v>
+        <v>412</v>
       </c>
       <c r="V13" t="s">
-        <v>462</v>
-      </c>
-      <c r="W13" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="H14" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="I14" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="J14" t="s">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="K14" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="L14" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="M14" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="N14" t="s">
-        <v>348</v>
+        <v>290</v>
       </c>
       <c r="O14" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="P14" t="s">
-        <v>379</v>
+        <v>290</v>
       </c>
       <c r="Q14" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="R14" t="s">
-        <v>403</v>
+        <v>290</v>
       </c>
       <c r="S14" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="T14" t="s">
-        <v>434</v>
+        <v>287</v>
       </c>
       <c r="U14" t="s">
-        <v>337</v>
+        <v>413</v>
       </c>
       <c r="V14" t="s">
-        <v>463</v>
-      </c>
-      <c r="W14" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="H15" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="I15" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="J15" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="K15" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="L15" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="M15" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="N15" t="s">
-        <v>349</v>
+        <v>290</v>
       </c>
       <c r="O15" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="P15" t="s">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="Q15" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="R15" t="s">
-        <v>404</v>
+        <v>290</v>
       </c>
       <c r="S15" t="s">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="T15" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="U15" t="s">
-        <v>337</v>
+        <v>414</v>
       </c>
       <c r="V15" t="s">
-        <v>464</v>
-      </c>
-      <c r="W15" t="s">
-        <v>339</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="H16" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="I16" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="J16" t="s">
-        <v>275</v>
+        <v>223</v>
       </c>
       <c r="K16" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L16" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="M16" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="N16" t="s">
-        <v>350</v>
+        <v>287</v>
       </c>
       <c r="O16" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="P16" t="s">
-        <v>381</v>
+        <v>287</v>
       </c>
       <c r="Q16" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="R16" t="s">
-        <v>405</v>
+        <v>288</v>
       </c>
       <c r="S16" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="T16" t="s">
-        <v>435</v>
+        <v>287</v>
       </c>
       <c r="U16" t="s">
-        <v>337</v>
+        <v>415</v>
       </c>
       <c r="V16" t="s">
-        <v>465</v>
-      </c>
-      <c r="W16" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
         <v>100</v>
       </c>
-      <c r="D17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" t="s">
-        <v>137</v>
-      </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="H17" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="I17" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="J17" t="s">
-        <v>276</v>
+        <v>112</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>268</v>
       </c>
       <c r="L17" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="M17" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="N17" t="s">
-        <v>351</v>
+        <v>287</v>
       </c>
       <c r="O17" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="P17" t="s">
-        <v>382</v>
+        <v>287</v>
       </c>
       <c r="Q17" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="R17" t="s">
-        <v>406</v>
+        <v>289</v>
       </c>
       <c r="S17" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="T17" t="s">
-        <v>436</v>
+        <v>287</v>
       </c>
       <c r="U17" t="s">
-        <v>337</v>
+        <v>416</v>
       </c>
       <c r="V17" t="s">
-        <v>466</v>
-      </c>
-      <c r="W17" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="L18" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M18" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N18" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="O18" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="P18" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="Q18" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="R18" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="S18" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="T18" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="U18" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="V18" t="s">
-        <v>78</v>
-      </c>
-      <c r="W18" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="K19" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="L19" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M19" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N19" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="O19" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="P19" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="Q19" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="R19" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="S19" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="T19" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="U19" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="V19" t="s">
-        <v>78</v>
-      </c>
-      <c r="W19" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="F20" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="G20" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="H20" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="I20" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="J20" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="K20" t="s">
-        <v>294</v>
+        <v>99</v>
       </c>
       <c r="L20" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="M20" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="N20" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="O20" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="P20" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="Q20" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="R20" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="S20" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="T20" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="U20" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="V20" t="s">
-        <v>294</v>
-      </c>
-      <c r="W20" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="G21" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="H21" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="I21" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="J21" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="K21" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="L21" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="M21" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="N21" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="O21" t="s">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="P21" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="Q21" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R21" t="s">
-        <v>407</v>
+        <v>287</v>
       </c>
       <c r="S21" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="T21" t="s">
-        <v>437</v>
+        <v>287</v>
       </c>
       <c r="U21" t="s">
-        <v>337</v>
+        <v>417</v>
       </c>
       <c r="V21" t="s">
-        <v>467</v>
-      </c>
-      <c r="W21" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F22" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="G22" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="H22" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="I22" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="J22" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="K22" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="L22" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="M22" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="N22" t="s">
-        <v>353</v>
+        <v>290</v>
       </c>
       <c r="O22" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="P22" t="s">
-        <v>383</v>
+        <v>290</v>
       </c>
       <c r="Q22" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="R22" t="s">
-        <v>408</v>
+        <v>290</v>
       </c>
       <c r="S22" t="s">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="T22" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="U22" t="s">
-        <v>337</v>
+        <v>418</v>
       </c>
       <c r="V22" t="s">
-        <v>468</v>
-      </c>
-      <c r="W22" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="G23" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="H23" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="I23" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="J23" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K23" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="L23" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="M23" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="N23" t="s">
-        <v>354</v>
+        <v>290</v>
       </c>
       <c r="O23" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="P23" t="s">
-        <v>384</v>
+        <v>290</v>
       </c>
       <c r="Q23" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="R23" t="s">
-        <v>409</v>
+        <v>290</v>
       </c>
       <c r="S23" t="s">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="T23" t="s">
-        <v>438</v>
+        <v>287</v>
       </c>
       <c r="U23" t="s">
-        <v>337</v>
+        <v>419</v>
       </c>
       <c r="V23" t="s">
-        <v>469</v>
-      </c>
-      <c r="W23" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
         <v>83</v>
       </c>
-      <c r="C24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" t="s">
-        <v>123</v>
-      </c>
       <c r="E24" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="G24" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="H24" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="I24" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="J24" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="K24" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="L24" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="M24" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="N24" t="s">
-        <v>355</v>
+        <v>290</v>
       </c>
       <c r="O24" t="s">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="P24" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="Q24" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="R24" t="s">
-        <v>410</v>
+        <v>287</v>
       </c>
       <c r="S24" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="T24" t="s">
-        <v>439</v>
+        <v>290</v>
       </c>
       <c r="U24" t="s">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="V24" t="s">
-        <v>470</v>
-      </c>
-      <c r="W24" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="G25" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="H25" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="I25" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="J25" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="K25" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="L25" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="M25" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="N25" t="s">
-        <v>356</v>
+        <v>290</v>
       </c>
       <c r="O25" t="s">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="P25" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="Q25" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="R25" t="s">
-        <v>411</v>
+        <v>287</v>
       </c>
       <c r="S25" t="s">
-        <v>337</v>
+        <v>390</v>
       </c>
       <c r="T25" t="s">
-        <v>440</v>
+        <v>287</v>
       </c>
       <c r="U25" t="s">
-        <v>337</v>
+        <v>421</v>
       </c>
       <c r="V25" t="s">
-        <v>471</v>
-      </c>
-      <c r="W25" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I26" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="K26" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M26" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N26" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="O26" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="P26" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="Q26" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="R26" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="S26" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="T26" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="U26" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="V26" t="s">
-        <v>78</v>
-      </c>
-      <c r="W26" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I27" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="L27" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M27" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N27" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="O27" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="P27" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="Q27" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="R27" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="S27" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="T27" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="U27" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="V27" t="s">
-        <v>78</v>
-      </c>
-      <c r="W27" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F28" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G28" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="H28" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="I28" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="J28" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="K28" t="s">
-        <v>294</v>
+        <v>114</v>
       </c>
       <c r="L28" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="M28" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="N28" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="O28" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="Q28" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="R28" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="S28" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="T28" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="U28" t="s">
-        <v>267</v>
+        <v>422</v>
       </c>
       <c r="V28" t="s">
-        <v>472</v>
-      </c>
-      <c r="W28" t="s">
-        <v>472</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="F29" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="G29" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="H29" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="I29" t="s">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="J29" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="K29" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="M29" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="N29" t="s">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="O29" t="s">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="P29" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="Q29" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="R29" t="s">
-        <v>412</v>
+        <v>287</v>
       </c>
       <c r="S29" t="s">
-        <v>337</v>
+        <v>391</v>
       </c>
       <c r="T29" t="s">
-        <v>441</v>
+        <v>289</v>
       </c>
       <c r="U29" t="s">
-        <v>339</v>
+        <v>423</v>
       </c>
       <c r="V29" t="s">
-        <v>473</v>
-      </c>
-      <c r="W29" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I30" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="K30" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="L30" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M30" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N30" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="O30" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="P30" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="Q30" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="R30" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="S30" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="T30" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="U30" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="V30" t="s">
-        <v>78</v>
-      </c>
-      <c r="W30" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="F31" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="G31" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="H31" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="I31" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" t="s">
         <v>256</v>
       </c>
-      <c r="J31" t="s">
-        <v>282</v>
-      </c>
       <c r="K31" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="M31" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="N31" t="s">
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="O31" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P31" t="s">
-        <v>385</v>
+        <v>287</v>
       </c>
       <c r="Q31" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="R31" t="s">
-        <v>413</v>
+        <v>291</v>
       </c>
       <c r="S31" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
       <c r="T31" t="s">
-        <v>442</v>
+        <v>289</v>
       </c>
       <c r="U31" t="s">
-        <v>339</v>
+        <v>424</v>
       </c>
       <c r="V31" t="s">
-        <v>474</v>
-      </c>
-      <c r="W31" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F32" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G32" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="H32" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="I32" t="s">
+        <v>169</v>
+      </c>
+      <c r="J32" t="s">
         <v>257</v>
       </c>
-      <c r="J32" t="s">
-        <v>219</v>
-      </c>
       <c r="K32" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="M32" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="N32" t="s">
-        <v>359</v>
+        <v>290</v>
       </c>
       <c r="O32" t="s">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="P32" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="Q32" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="R32" t="s">
-        <v>414</v>
+        <v>287</v>
       </c>
       <c r="S32" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="T32" t="s">
-        <v>443</v>
+        <v>287</v>
       </c>
       <c r="U32" t="s">
-        <v>337</v>
+        <v>425</v>
       </c>
       <c r="V32" t="s">
-        <v>475</v>
-      </c>
-      <c r="W32" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="F33" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="G33" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H33" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="I33" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="J33" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="K33" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="N33" t="s">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="O33" t="s">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="P33" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="Q33" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="R33" t="s">
-        <v>415</v>
+        <v>287</v>
       </c>
       <c r="S33" t="s">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="T33" t="s">
-        <v>444</v>
+        <v>287</v>
       </c>
       <c r="U33" t="s">
-        <v>337</v>
+        <v>426</v>
       </c>
       <c r="V33" t="s">
-        <v>476</v>
-      </c>
-      <c r="W33" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="L34" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M34" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N34" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="O34" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="P34" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="Q34" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="R34" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="S34" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="T34" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="U34" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="V34" t="s">
-        <v>78</v>
-      </c>
-      <c r="W34" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I35" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="K35" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="L35" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M35" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N35" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="O35" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="P35" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="Q35" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="R35" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="S35" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="T35" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="U35" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="V35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W35" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="F36" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="G36" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="H36" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="I36" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="J36" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="K36" t="s">
-        <v>294</v>
+        <v>99</v>
       </c>
       <c r="L36" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="M36" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="N36" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="O36" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q36" t="s">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="R36" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="S36" t="s">
-        <v>240</v>
+        <v>395</v>
       </c>
       <c r="T36" t="s">
-        <v>445</v>
+        <v>395</v>
       </c>
       <c r="U36" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="V36" t="s">
-        <v>472</v>
-      </c>
-      <c r="W36" t="s">
-        <v>472</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
         <v>57</v>
       </c>
-      <c r="B37" t="s">
-        <v>80</v>
-      </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="F37" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="G37" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="H37" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="I37" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="J37" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="K37" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="L37" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="M37" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="N37" t="s">
-        <v>361</v>
+        <v>290</v>
       </c>
       <c r="O37" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P37" t="s">
-        <v>386</v>
+        <v>291</v>
       </c>
       <c r="Q37" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="R37" t="s">
-        <v>416</v>
+        <v>290</v>
       </c>
       <c r="S37" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="T37" t="s">
-        <v>446</v>
+        <v>287</v>
       </c>
       <c r="U37" t="s">
-        <v>337</v>
+        <v>427</v>
       </c>
       <c r="V37" t="s">
-        <v>477</v>
-      </c>
-      <c r="W37" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
         <v>58</v>
       </c>
-      <c r="B38" t="s">
-        <v>81</v>
-      </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G38" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I38" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="J38" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="K38" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="L38" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M38" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N38" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="O38" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="P38" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="Q38" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="R38" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="S38" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="T38" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="U38" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="V38" t="s">
-        <v>78</v>
-      </c>
-      <c r="W38" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s">
         <v>59</v>
       </c>
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="E39" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="F39" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G39" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="H39" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="I39" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="J39" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="K39" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="L39" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="M39" t="s">
+        <v>312</v>
+      </c>
+      <c r="N39" t="s">
+        <v>290</v>
+      </c>
+      <c r="O39" t="s">
         <v>337</v>
       </c>
-      <c r="N39" t="s">
-        <v>362</v>
-      </c>
-      <c r="O39" t="s">
-        <v>340</v>
-      </c>
       <c r="P39" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
       <c r="Q39" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="R39" t="s">
-        <v>417</v>
+        <v>290</v>
       </c>
       <c r="S39" t="s">
-        <v>340</v>
+        <v>397</v>
       </c>
       <c r="T39" t="s">
-        <v>447</v>
+        <v>287</v>
       </c>
       <c r="U39" t="s">
-        <v>337</v>
+        <v>428</v>
       </c>
       <c r="V39" t="s">
-        <v>478</v>
-      </c>
-      <c r="W39" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
         <v>60</v>
       </c>
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="E40" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="F40" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="G40" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="H40" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="I40" t="s">
+        <v>236</v>
+      </c>
+      <c r="J40" t="s">
         <v>260</v>
       </c>
-      <c r="J40" t="s">
-        <v>286</v>
-      </c>
       <c r="K40" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="L40" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="M40" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="N40" t="s">
-        <v>363</v>
+        <v>290</v>
       </c>
       <c r="O40" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P40" t="s">
-        <v>388</v>
+        <v>290</v>
       </c>
       <c r="Q40" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="R40" t="s">
-        <v>418</v>
+        <v>290</v>
       </c>
       <c r="S40" t="s">
-        <v>340</v>
+        <v>398</v>
       </c>
       <c r="T40" t="s">
-        <v>448</v>
+        <v>290</v>
       </c>
       <c r="U40" t="s">
-        <v>340</v>
+        <v>429</v>
       </c>
       <c r="V40" t="s">
-        <v>479</v>
-      </c>
-      <c r="W40" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
         <v>61</v>
       </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F41" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G41" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="H41" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="I41" t="s">
+        <v>237</v>
+      </c>
+      <c r="J41" t="s">
         <v>261</v>
       </c>
-      <c r="J41" t="s">
-        <v>287</v>
-      </c>
       <c r="K41" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="L41" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="M41" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="N41" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="O41" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P41" t="s">
-        <v>389</v>
+        <v>288</v>
       </c>
       <c r="Q41" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="R41" t="s">
-        <v>419</v>
+        <v>291</v>
       </c>
       <c r="S41" t="s">
-        <v>341</v>
+        <v>399</v>
       </c>
       <c r="T41" t="s">
-        <v>449</v>
+        <v>290</v>
       </c>
       <c r="U41" t="s">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="V41" t="s">
-        <v>480</v>
-      </c>
-      <c r="W41" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G42" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="H42" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I42" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="J42" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="L42" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M42" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N42" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="O42" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="P42" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="Q42" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="R42" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="S42" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="T42" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="U42" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="V42" t="s">
-        <v>78</v>
-      </c>
-      <c r="W42" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="H43" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I43" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="J43" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M43" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N43" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="O43" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="P43" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="Q43" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="R43" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="S43" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="T43" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="U43" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="V43" t="s">
-        <v>78</v>
-      </c>
-      <c r="W43" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="E44" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="F44" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="G44" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="H44" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="I44" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="J44" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="K44" t="s">
-        <v>294</v>
+        <v>99</v>
       </c>
       <c r="L44" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="M44" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="N44" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="O44" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q44" t="s">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="R44" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="S44" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="T44" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="U44" t="s">
-        <v>267</v>
+        <v>422</v>
       </c>
       <c r="V44" t="s">
-        <v>472</v>
-      </c>
-      <c r="W44" t="s">
-        <v>472</v>
+        <v>422</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s">
         <v>80</v>
       </c>
-      <c r="C45" t="s">
-        <v>112</v>
-      </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E45" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="F45" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="G45" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="H45" t="s">
-        <v>233</v>
+        <v>143</v>
       </c>
       <c r="I45" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="J45" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="K45" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="L45" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="M45" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="N45" t="s">
-        <v>365</v>
+        <v>289</v>
       </c>
       <c r="O45" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P45" t="s">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="Q45" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="R45" t="s">
-        <v>420</v>
+        <v>290</v>
       </c>
       <c r="S45" t="s">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="T45" t="s">
-        <v>450</v>
+        <v>291</v>
       </c>
       <c r="U45" t="s">
-        <v>341</v>
+        <v>431</v>
       </c>
       <c r="V45" t="s">
-        <v>481</v>
-      </c>
-      <c r="W45" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G46" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="H46" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I46" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="J46" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="K46" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M46" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N46" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="O46" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="P46" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="Q46" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="R46" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="S46" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="T46" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="U46" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="V46" t="s">
-        <v>78</v>
-      </c>
-      <c r="W46" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="E47" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="F47" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="G47" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="H47" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="I47" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="J47" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="K47" t="s">
-        <v>162</v>
+        <v>286</v>
       </c>
       <c r="L47" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="M47" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="N47" t="s">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="O47" t="s">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="P47" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="Q47" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="R47" t="s">
-        <v>421</v>
+        <v>288</v>
       </c>
       <c r="S47" t="s">
-        <v>338</v>
+        <v>401</v>
       </c>
       <c r="T47" t="s">
-        <v>451</v>
+        <v>289</v>
       </c>
       <c r="U47" t="s">
-        <v>339</v>
+        <v>432</v>
       </c>
       <c r="V47" t="s">
-        <v>482</v>
-      </c>
-      <c r="W47" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E48" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F48" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="G48" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="H48" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="I48" t="s">
+        <v>239</v>
+      </c>
+      <c r="J48" t="s">
         <v>263</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
+        <v>268</v>
+      </c>
+      <c r="L48" t="s">
+        <v>287</v>
+      </c>
+      <c r="M48" t="s">
+        <v>317</v>
+      </c>
+      <c r="N48" t="s">
         <v>289</v>
       </c>
-      <c r="K48" t="s">
-        <v>313</v>
-      </c>
-      <c r="L48" t="s">
-        <v>318</v>
-      </c>
-      <c r="M48" t="s">
-        <v>337</v>
-      </c>
-      <c r="N48" t="s">
-        <v>367</v>
-      </c>
       <c r="O48" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P48" t="s">
-        <v>391</v>
+        <v>287</v>
       </c>
       <c r="Q48" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="R48" t="s">
-        <v>422</v>
+        <v>291</v>
       </c>
       <c r="S48" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="T48" t="s">
-        <v>452</v>
+        <v>290</v>
       </c>
       <c r="U48" t="s">
-        <v>340</v>
+        <v>433</v>
       </c>
       <c r="V48" t="s">
-        <v>483</v>
-      </c>
-      <c r="W48" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F49" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G49" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="H49" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="I49" t="s">
+        <v>240</v>
+      </c>
+      <c r="J49" t="s">
         <v>264</v>
       </c>
-      <c r="J49" t="s">
-        <v>290</v>
-      </c>
       <c r="K49" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="L49" t="s">
+        <v>287</v>
+      </c>
+      <c r="M49" t="s">
         <v>318</v>
       </c>
-      <c r="M49" t="s">
-        <v>337</v>
-      </c>
       <c r="N49" t="s">
-        <v>368</v>
+        <v>289</v>
       </c>
       <c r="O49" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P49" t="s">
-        <v>392</v>
+        <v>287</v>
       </c>
       <c r="Q49" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="R49" t="s">
-        <v>423</v>
+        <v>290</v>
       </c>
       <c r="S49" t="s">
-        <v>340</v>
+        <v>403</v>
       </c>
       <c r="T49" t="s">
-        <v>453</v>
+        <v>287</v>
       </c>
       <c r="U49" t="s">
-        <v>337</v>
+        <v>434</v>
       </c>
       <c r="V49" t="s">
-        <v>484</v>
-      </c>
-      <c r="W49" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G50" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="H50" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I50" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="J50" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="K50" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="L50" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M50" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N50" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="O50" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="P50" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="Q50" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="R50" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="S50" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="T50" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="U50" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="V50" t="s">
-        <v>78</v>
-      </c>
-      <c r="W50" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E51" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I51" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="J51" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="K51" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="L51" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M51" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N51" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="O51" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="P51" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="Q51" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="R51" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="S51" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="T51" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="U51" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="V51" t="s">
-        <v>78</v>
-      </c>
-      <c r="W51" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="E52" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="G52" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="H52" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="I52" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="J52" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="K52" t="s">
-        <v>294</v>
+        <v>99</v>
       </c>
       <c r="L52" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="M52" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="N52" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="O52" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="P52" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q52" t="s">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="R52" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="S52" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="T52" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="U52" t="s">
-        <v>267</v>
+        <v>422</v>
       </c>
       <c r="V52" t="s">
-        <v>472</v>
-      </c>
-      <c r="W52" t="s">
-        <v>472</v>
+        <v>422</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F53" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="G53" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="H53" t="s">
-        <v>237</v>
+        <v>164</v>
       </c>
       <c r="I53" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="J53" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="K53" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="L53" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="M53" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="N53" t="s">
-        <v>369</v>
+        <v>290</v>
       </c>
       <c r="O53" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P53" t="s">
-        <v>393</v>
+        <v>287</v>
       </c>
       <c r="Q53" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="R53" t="s">
-        <v>424</v>
+        <v>290</v>
       </c>
       <c r="S53" t="s">
-        <v>340</v>
+        <v>404</v>
       </c>
       <c r="T53" t="s">
-        <v>454</v>
+        <v>289</v>
       </c>
       <c r="U53" t="s">
-        <v>339</v>
+        <v>435</v>
       </c>
       <c r="V53" t="s">
-        <v>485</v>
-      </c>
-      <c r="W53" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E54" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G54" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I54" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="J54" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="K54" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="L54" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M54" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N54" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="O54" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="P54" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="Q54" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="R54" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="S54" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="T54" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="U54" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="V54" t="s">
-        <v>78</v>
-      </c>
-      <c r="W54" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="D55" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="E55" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F55" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="G55" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="H55" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="I55" t="s">
+        <v>242</v>
+      </c>
+      <c r="J55" t="s">
         <v>265</v>
       </c>
-      <c r="J55" t="s">
-        <v>292</v>
-      </c>
       <c r="K55" t="s">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="L55" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="M55" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="N55" t="s">
-        <v>370</v>
+        <v>289</v>
       </c>
       <c r="O55" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="P55" t="s">
-        <v>394</v>
+        <v>287</v>
       </c>
       <c r="Q55" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="R55" t="s">
-        <v>425</v>
+        <v>290</v>
       </c>
       <c r="S55" t="s">
-        <v>340</v>
+        <v>405</v>
       </c>
       <c r="T55" t="s">
-        <v>455</v>
+        <v>288</v>
       </c>
       <c r="U55" t="s">
-        <v>338</v>
+        <v>436</v>
       </c>
       <c r="V55" t="s">
-        <v>486</v>
-      </c>
-      <c r="W55" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D56" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="F56" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="G56" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="H56" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="I56" t="s">
+        <v>243</v>
+      </c>
+      <c r="J56" t="s">
         <v>266</v>
       </c>
-      <c r="J56" t="s">
-        <v>293</v>
-      </c>
       <c r="K56" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="L56" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="M56" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="N56" t="s">
-        <v>371</v>
+        <v>288</v>
       </c>
       <c r="O56" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="P56" t="s">
-        <v>395</v>
+        <v>290</v>
       </c>
       <c r="Q56" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="R56" t="s">
-        <v>426</v>
+        <v>290</v>
       </c>
       <c r="S56" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="T56" t="s">
-        <v>456</v>
+        <v>287</v>
       </c>
       <c r="U56" t="s">
-        <v>337</v>
+        <v>437</v>
       </c>
       <c r="V56" t="s">
-        <v>487</v>
-      </c>
-      <c r="W56" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="D57" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="F57" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="G57" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="H57" t="s">
-        <v>239</v>
+        <v>104</v>
       </c>
       <c r="I57" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="J57" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="K57" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="L57" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="M57" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="N57" t="s">
-        <v>372</v>
+        <v>289</v>
       </c>
       <c r="O57" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="P57" t="s">
-        <v>396</v>
+        <v>291</v>
       </c>
       <c r="Q57" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="R57" t="s">
-        <v>427</v>
+        <v>290</v>
       </c>
       <c r="S57" t="s">
-        <v>340</v>
+        <v>407</v>
       </c>
       <c r="T57" t="s">
-        <v>457</v>
+        <v>287</v>
       </c>
       <c r="U57" t="s">
-        <v>337</v>
+        <v>438</v>
       </c>
       <c r="V57" t="s">
-        <v>488</v>
-      </c>
-      <c r="W57" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
